--- a/webbangiay/src/main/resources/templates/export_san_pham.xlsx
+++ b/webbangiay/src/main/resources/templates/export_san_pham.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datn\DuAnTN_Web\webbangiay\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Desktop\DuAnTN_Web\webbangiay\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F498FA58-FBE9-479F-B4A7-4A8F647AC6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách sản phẩm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +34,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Huy Nguyen</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:area(lastCell="K3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="sanPham" var="item"  varStatus="status" lastCell="K3")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Danh sách sản phẩm</t>
   </si>
@@ -68,23 +125,54 @@
     <t>Mô tả</t>
   </si>
   <si>
-    <t>SP01</t>
-  </si>
-  <si>
-    <t>SP02</t>
-  </si>
-  <si>
-    <t>SP03</t>
-  </si>
-  <si>
     <t>Chất liệu</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>${status.index + 1}</t>
+  </si>
+  <si>
+    <t>${item.sanPham.ma}</t>
+  </si>
+  <si>
+    <t>${item.sanPham.tenSP}</t>
+  </si>
+  <si>
+    <t>${item.sanPham.phanLoai.tenLoai}</t>
+  </si>
+  <si>
+    <t>${item.sanPham.thuongHieu.ten}</t>
+  </si>
+  <si>
+    <t>${item.mauSac.ten}</t>
+  </si>
+  <si>
+    <t>${item.chatLieu.tenChatLieu}</t>
+  </si>
+  <si>
+    <t>${item.soLuongTon}</t>
+  </si>
+  <si>
+    <t>${item.donGia}</t>
+  </si>
+  <si>
+    <t>${item.moTa}</t>
+  </si>
+  <si>
+    <t>${item.kichThuoc.ma}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,22 +181,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -162,21 +257,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -462,129 +563,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="18.85546875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="34.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="17.5546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="3"/>
+    <col min="13" max="13" width="18.88671875" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>